--- a/trunk/Clouds/Stepan/doc/Clouds.xlsx
+++ b/trunk/Clouds/Stepan/doc/Clouds.xlsx
@@ -45,9 +45,6 @@
     <t>4-6</t>
   </si>
   <si>
-    <t>7-8</t>
-  </si>
-  <si>
     <t>Саетило</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Воздушный шарик</t>
+  </si>
+  <si>
+    <t>7-10</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -551,8 +551,8 @@
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
@@ -560,393 +560,393 @@
     <row r="2" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:6" ht="15.75" thickBot="1">
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
